--- a/topics/2024.Summer..SWR302-SWP-FER201M-SWT-PRN.Subjects.xlsx
+++ b/topics/2024.Summer..SWR302-SWP-FER201M-SWT-PRN.Subjects.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Link tham khao" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet4" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>No</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>c</t>
@@ -227,7 +228,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <r>
+      <rPr>
+        <rFont val="Calibri, sans-serif"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">Diamond Assessment System
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri, sans-serif"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve"> Phần mềm quản lý giám định kim cương</t>
+    </r>
   </si>
   <si>
     <t>Guest
@@ -670,6 +689,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Giáo viên THPT (Teacher)
+Admin
+Manager
+</t>
+  </si>
+  <si>
     <t>Cổng thông tin STEM cho trường THPT của Trường ĐH FPT</t>
   </si>
   <si>
@@ -717,6 +742,9 @@
     <t>Goods Exchange Application for students at FU(Nền tảng trao đổi đồ dùng học tập và vật dụng cho sinh viên tại FU)</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>Guest
 buyer
 seller
@@ -741,7 +769,7 @@
 </t>
   </si>
   <si>
-    <t>Pets' services management</t>
+    <t>Pets' spa management</t>
   </si>
   <si>
     <t>Guest
@@ -749,6 +777,110 @@
 Payment System
 Manager
 Staff</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Guest: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">View spa combo packages (information, Pictures, prices, experiences,...)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Customer: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
++ Customers can book a spa appointment for their pets.
++ Cancel appointment, change time and change staff booking within 24 hours before the original appointment.
++ View booking history and online transaction history.
++ Evaluate the service after using the service.
++ Become a member and receive additional incentives when using the service.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Payment: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">System: Save and let customers see payment history
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Allow and grant permissions to employees and admins.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Staff: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">+ After receiving the request from the system, the employee will confirm the job.
++ Consulting and responding to customer comments.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Admin: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Account management and system maintenance</t>
+    </r>
   </si>
   <si>
     <t>Vintage Timepiece Evaluation and Trading Platform
@@ -1036,12 +1168,76 @@
 Tưng gian hàng (sponsor) có thể nhanh chóng biết được thông tin khách ghé thăm dựa vào QR code / thẻ sinh viên / thẻ giảng viên.
 Sau event, có thể thống kê, gửi khảo sát đến với người đã tham gia.</t>
   </si>
+  <si>
+    <t>Hệ thống chăm sóc thú cưng
+ Pet Health Care System</t>
+  </si>
+  <si>
+    <t>Khách hàng (Customer)
+Nhân viên (Staff)
+Bác sĩ thú y (Veterinarian)
+Người quản trị hệ thống (Admin)</t>
+  </si>
+  <si>
+    <t>+ Khách hàng
+        - Quản lý danh sách thú cưng
+        - Xem thông tin chi tiết của thú cưng (kèm theo lịch sử khám chữa bệnh, vaccine hàng năm của thú cưng)
+        - Đăng ký khám bệnh theo thời gian cụ thể (trả chi phí book khám), có thể chọn bác sĩ thú y, nếu không chọn bác sĩ thú y thì nhân viên sẽ sắp xếp cho 1 bác sĩ cụ thể trước khi đến khám. Trường hợp hủy đăng ký khám (trước 7 ngày được hoàn lại tiền khám nếu thanh toán trước, từ 3 - 6 ngày hoàn 75% phí trả trước, trường hợp còn lại sẽ không hoàn phí thanh toán trước.
+        - Đưa thú cưng đi khám (checkin), trả chi phí dịch vụ phát sinh
+        - Đánh giá các lần khám.
+        - Trường hợp thú cưng nhập viện (lưu chuồng), khách hàng có thể theo dõi quá trình chữa bệnh của thú cưng
++ Nhân viên 
+        - Quản lý thông tin về các chuồng (phòng) trong hệ thống 
+        - Quản lý các booking, và xử lý hủy booking (trường hợp Hệ thống hủy, khách hàng được hoàn tiền nếu đã thanh toán tiền trước)
+        - Quản lý thông tin của thú cưng nhập viện (lưu chuồng) (cập nhật thông tin theo định kỳ hoặc cập nhật thông tin khi cần thiết cho khách hàng có thể theo dõi trực tuyến)
+        - Sắp lịch cho bác sĩ thú y (bác sĩ rảnh) trong trường hợp khách hàng mang thú cưng đến khám trực tiếp không book trước.
+        - Sắp lịch cho bác sĩ thú y chăm sóc thú cưng nhập viện (lưu chuồng).
++ Bác sĩ thú y (Veterinarian)
+        - Trường hợp này Bác sĩ thuộc hệ thống (làm việc fulltime), thời gian khám của bác sĩ được công bố cho khách hàng lựa chọn khi booking. 
+        - Bác sĩ khám cho thú cưng, ghi nhận hồ sơ khám
+        - Bác sĩ chăm sóc thú cưng nhập viện (lưu chuồng) và ghi nhận hồ sơ
++ Admin
+        - Quản lý tài khoản
+        - Quản lý cấu hình hệ thống
+        - Thống kê doanh thu của hệ thống theo tháng, tuần, ngày)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website hoc toan Tieu hoc </t>
+  </si>
+  <si>
+    <t>Hoc toan Tieu hoc tren nen tang web</t>
+  </si>
+  <si>
+    <t>Student 
+Parent
+Admin
+Manager 
+Content Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quản lý các Môn học Toán (Subject)
+Mỗi môn có nhiều Chương (Chapter)
+Mỗi chương có nhiều Chủ đề (Topic)
+Phụ huynh mua các môn học cho con mình học. Khi mua phải xác định Students nào là con của họ được học.
+Quản lý tiến độ học tập (đã học đến Topic nào)
+Hoàn thành các câu hỏi trong 1 topic xem như là hoàn thành topic đó
+Topic đang học nữa chừng mà dừng thì khi login lại phải học lại topic đó
+Cuối mỗi Chapter sẽ có Quiz
+Pass qua Quiz xem như hoàn thành chapter
+</t>
+  </si>
+  <si>
+    <t>https://trangsucdaquy.vn/gia-cong-trang-suc-theo-yeu-cau/</t>
+  </si>
+  <si>
+    <t>https://restfulapi.net/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1066,6 +1262,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1098,6 +1300,15 @@
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1113,7 +1324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -1136,6 +1347,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1144,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1172,15 +1394,18 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1190,17 +1415,20 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
@@ -1208,53 +1436,71 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,6 +1515,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1480,12 +1730,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="63.63"/>
-    <col customWidth="1" min="3" max="3" width="44.63"/>
-    <col customWidth="1" min="4" max="4" width="21.25"/>
-    <col customWidth="1" min="5" max="5" width="25.13"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="67.25"/>
-    <col customWidth="1" min="7" max="7" width="131.5"/>
+    <col customWidth="1" min="2" max="2" width="68.25"/>
+    <col customWidth="1" min="3" max="3" width="22.38"/>
+    <col customWidth="1" min="4" max="4" width="27.5"/>
+    <col customWidth="1" min="5" max="5" width="28.25"/>
+    <col customWidth="1" min="6" max="6" width="0.38"/>
+    <col customWidth="1" min="7" max="7" width="138.88"/>
     <col customWidth="1" min="8" max="8" width="28.5"/>
   </cols>
   <sheetData>
@@ -1553,7 +1803,7 @@
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6"/>
@@ -1571,7 +1821,7 @@
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="6"/>
@@ -1589,11 +1839,11 @@
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
@@ -1607,11 +1857,11 @@
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
         <v>23</v>
       </c>
@@ -1622,271 +1872,312 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="77.25" customHeight="1">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>7.0</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>8.0</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
+      <c r="B9" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>9.0</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6"/>
+      <c r="B10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>30</v>
       </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>10.0</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6"/>
+      <c r="B11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="22"/>
+      <c r="E11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="24"/>
     </row>
     <row r="12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="22"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="24"/>
     </row>
     <row r="13">
-      <c r="B13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>37</v>
+      <c r="B13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="27"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15">
-      <c r="A15" s="28">
+      <c r="A15" s="30">
         <v>14.0</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="28" t="s">
+      <c r="B15" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28" t="s">
+      <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
+      <c r="D15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
     </row>
     <row r="16">
-      <c r="A16" s="28">
+      <c r="A16" s="30">
         <v>15.0</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="B16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28" t="s">
+      <c r="C16" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
+      <c r="D16" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
     </row>
     <row r="17">
-      <c r="A17" s="31">
+      <c r="A17" s="34">
         <v>16.0</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
+      <c r="B17" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
     </row>
     <row r="18">
-      <c r="A18" s="28">
+      <c r="A18" s="30">
         <v>17.0</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>53</v>
+      <c r="B18" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="31">
+      <c r="A19" s="34">
         <v>18.0</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>56</v>
+      <c r="B19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="28">
+      <c r="A20" s="30">
         <v>19.0</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>59</v>
+      <c r="B20" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="32">
+      <c r="A21" s="35">
         <v>20.0</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>62</v>
+      <c r="B21" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="42">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="28">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1903,6 +2194,38 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="44.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink r:id="rId2" ref="A2"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/topics/2024.Summer..SWR302-SWP-FER201M-SWT-PRN.Subjects.xlsx
+++ b/topics/2024.Summer..SWR302-SWP-FER201M-SWT-PRN.Subjects.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giao.lang\Desktop\_cloud.truong.lang\software-development-project\topics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Link tham khao" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet4" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Link tham khao" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -38,18 +46,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Diamond Shop System</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý cửa hàng kim cương</t>
@@ -66,18 +74,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý việc bán kim cương trực tuyến của công ty kinh doanh kim cương</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Trang chủ giới thiệu cửa hàng, sản phẩm về kim cương, bộ sưu tập, bảng giá kim cương, kiến thức trang sức, kiến thức kim cương, hướng dẫn chọn ni, câu hỏi thường gặp, …
@@ -86,53 +94,53 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Khách hàng chọn sản phẩm và đặt hàng --&gt; NV bán hàng tiếp nhận đơn hàng và hướng dẫn đo ni cho khách hàng --&gt; Khách hàng xác nhận ni và thực hiện thanh toán --&gt; NV bán hàng xuất sản phẩm và kèm theo phiếu bảo hành và giấy chứng nhận kim cương để bàn giao --&gt; NV giao hàng gửi sản phẩm đến khách hàng &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Quản lý phiếu bảo hành sản phẩm, giấy chứng nhận kim cương theo tiêu chuẩn </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>4C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> của </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>GIA</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>.
  - Quản lý chương trình khuyến mãi, tích lũy điểm.
@@ -140,69 +148,69 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>arat weight), màu sắc (</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>olor), độ tinh khiết (</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>larity), cắt mài (</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">ut); khai báo bảng giá vỏ kim cương.
  - Quản lý sản phẩm kim cương bao gồm: vỏ kim cương, viên kim cương chính, các viên kim cương phụ, ...
@@ -210,18 +218,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">                &lt;&lt;Giá bán = giá vốn sản phẩm * tỉ lệ áp giá, Giá vốn sản phẩm = tiền kim cương + vỏ kim cương + tiền công&gt;&gt;</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Dashboard thống kê.</t>
@@ -230,20 +238,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">Diamond Assessment System
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> Phần mềm quản lý giám định kim cương</t>
     </r>
@@ -259,18 +266,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý thực hiện giám định kim cương theo yêu cầu của khách hàng cho công ty</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Trang chủ giới thiệu công ty giám định, dịch vụ thực hiện, kiến thức kim cương, tra cứu, blog chia sẽ, …
@@ -280,10 +287,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Khách hàng gửi phiếu yêu cầu giám định --&gt; NV tư vấn liên hệ khách hàng --&gt; NV tư vấn nhận mẫu giám định và thực hiện biên nhận giám định --&gt; NV giám định thực hiện giám định và ghi nhận kết quả --&gt; NV tư vấn gửi trả kết quả và mẫu giám định cho khách hàng &gt;&gt;
                &lt;&lt; Chi tiết bước NV giám định thực hiện giám định và ghi nhận kết quả:
@@ -292,9 +299,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Chức năng quản lý giấy giám định kim cương bao gồm các thông tin chính: số giám định, ngày cấp, loại nguồn gốc (diamond origin), dạng mài cắt (Shape &amp; Cut), kích thước (Measurements), trọng lượng (Carat weight), màu sắc (Color), độ tinh khiết (Clarity), cắt mài (Cut), tỉ lệ cắt mài (Proportions), mài bóng (Polish), đối xứng (Symmetry), phát quang (Flourescence)
  - Chức năng in giấy giám định kim cương theo mẫu của công ty.
@@ -307,18 +314,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Diamond Valuation System</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý định giá kim cương</t>
@@ -335,18 +342,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý yêu cầu của khách hàng thực hiện định giá kim cương cho công ty</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Trang chủ giới thiệu công ty, dịch vụ thực hiện, kiến thức kim cương, tra cứu, định giá, blog chia sẽ, …
@@ -357,27 +364,27 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">&lt;&lt; Khách hàng gửi phiếu yêu cầu định giá --&gt; NV tư vấn liên hệ khách hàng --&gt; NV tư vấn nhận mẫu định giá và thực hiện biên nhận định giá --&gt; NV định giá thực hiện định giá và ghi nhận kết quả --&gt; NV tư vấn gửi trả kết quả và mẫu định giá cho khách hàng &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Chức năng in giấy định giá kim cương theo mẫu của công ty.
  - Chức năng lập biên bản niêm phong để xử lý khi khách hàng không đến nhận kết quả và mẫu định giá. Chức năng làm giấy cam kết để nhận mẫu định giá khi khách hàng làm mất biên nhận định giá. Các chức năng này đều phải có sự phê duyệt của người quản lý.
@@ -390,18 +397,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Jewelry Sales System At The Store</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm bán hàng trang sức tại cửa hàng</t>
@@ -416,18 +423,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý bán hàng trang sức cho công ty kinh doanh trang sức tại 01 cửa hàng có nhiều quầy hàng</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Quản lý tạo lập đơn hàng bán tại quầy của khách và in hoá đơn bán hàng. Các mặt hàng được nhập bằng quét barcode hoặc nhập trực tiếp mã hàng vào chương trình. Chương trình hỗ trợ in phiếu bảo hành với các mặt hàng trang sức.
@@ -435,48 +442,48 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Giá bán = giá vốn sản phẩm * tỉ lệ áp giá, Giá vốn sản phẩm = [giá vàng thời điểm * trọng lượng sản phẩm] + tiền công + tiền đá &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Quản lý chương trình khuyến mãi của công ty khi bán hàng. Khách còn được hưởng thêm chính sách ưu đãi dành riêng cho khách hàng, đối với trường hợp này phải được xác nhận của quản lý thì nhân viên bán hàng mới ghi nhận chiết khấu cho khách hàng.
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Chiếu khấu hoá đơn = chiếu khấu trong kỳ khuyến mãi công ty (nếu có) + chiếu khấu do chính sách ưu đãi cho khách hàng ( nếu có) &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Quản lý mua lại hàng của khách hàng tại quầy và in hóa đơn mua hàng. Đối với mua lại hàng đã bán, công ty sẽ có chính sách ưu đãi giá. Chương trình hỗ trợ tìm lại hoá đơn bán hàng của khách hàng.
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">               &lt;&lt; Đối với nữ trang + đá thường: quầy hàng chỉ mua lại phần vàng thực tế
                      Đối với đá quý thì cửa hàng mua lại với giá được khai báo trong hệ thống (VD: 70% giá đã bán)
@@ -484,9 +491,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Chức năng hiển thị bảng giá vàng trên các thiết bị ti vi tại cửa hàng.
@@ -500,18 +507,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Jewelry Production Order System</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý đặt gia công trang sức</t>
@@ -528,18 +535,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Phần mềm quản lý việc đặt gia công trang sức của khách hàng cho công ty gia công trang sức</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  - Trang chủ giới thiệu công ty, bộ sưu tập trang sức, mẫu thiết kế, blog chia sẽ, …
@@ -549,38 +556,38 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">                &lt;&lt; Khách hàng gửi yêu cầu --&gt; NV kinh doanh tiếp nhận và trao đổi với khách --&gt; NV kinh doanh gửi yêu cầu phê duyệt báo giá --&gt; Người quản lý phê duyệt --&gt; NV kinh doanh gửi báo giá đã phê duyệt--&gt; khách hàng chấp nhận báo giá và tạo đơn hàng gia công --&gt; NV thiết kế gửi bản thiết kế 3D cho khách --&gt; khách hàng phê duyệt bản thiết kế 3D --&gt; NV gia công thực hiện gia công trang sức --&gt; NV kinh doanh bàn giao trang sức đã gia công và giấy bảo hành cho khách hàng &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Cập nhật chi phí của đơn hàng gia công theo định mức để báo giá và thực tế gia công để tính giá vốn báo giá và thực hiện
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
         <i/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">                &lt;&lt; Giá vốn sản phẩm = [giá vàng thời điểm * trọng lượng sản phẩm] + tiền công + tiền đá &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve"> - Khai báo chính sách thanh toán, hủy đơn hàng gia công trang sức.
  - khai báo giá vàng và giá đá áp dụng của công ty.
@@ -591,18 +598,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>Jewelry Auction System</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
  Phần mềm quản lý đấu giá trang sức</t>
@@ -618,9 +625,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">Phần mềm quản lý đấu giá trang sức trực tuyến của công ty đấu giá
 - Trang chủ giới thiệu công ty đấu giá, trang sức đấu giá, chính sách qui định, blog chia sẽ, …
@@ -630,17 +637,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">          &lt;&lt; Người bán gửi yêu cầu đấu giá trang sức --&gt; Nhân viên gửi định giá sơ bộ trang sức đến người bán và yêu cầu gửi trang sức đến công ty--&gt; Nhân viên xác nhận đã nhận trang sức --&gt; Nhân viên gửi định giá cuối cùng cho quản lý phê duyệt --&gt; Người quản lý phê duyệt định giá cuối cùng --&gt; Nhân viên gửi định giá cuối cùng cho người bán --&gt; Người bán xác nhận chấp nhận đấu giá --&gt; Người quản lý chọn phiên đấu giá cho trang sức &gt;&gt;</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">
 - Quản lý quá trình thực hiện đấu giá trang sức của khách mua.
@@ -648,18 +655,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t xml:space="preserve">         &lt;&lt; Khách mua đăng ký tham giá đấu giá --&gt; Khách mua đặt giá trước phiên đấu giá được mở --&gt; Hệ thống sẽ chọn ra giá đặt cao nhất để bắt đầu phiên đấu giá được mở--&gt; Khách mua thực hiện đấu giá --&gt; Hệ thống thông báo kết quả thắng hoặc thất bại đấu giá cho khách mua khi kết thúc phiên--&gt; Khách hàng thực hiện thanh toán --&gt; Nhân viên bàn giao trang sức cho khách mua --&gt; Hệ thống chuyển tiền cho bên bán &gt;&gt;
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, sans-serif"/>
       </rPr>
       <t>- Quản lý phiên đấu giá bao gồm: tạo phiên, chọn trang sức đăng ký vào phiên, phân công nhân viên đấu giá, mở phiên, đóng phiên, dừng phiên, lịch sử giao dịch phiên, ...
 - Quản lý trang sức tham gia đấu giá.
@@ -670,20 +677,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">STEM for Highschool
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Cổng thông tin STEM cho trường THPT</t>
     </r>
@@ -700,20 +706,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Green Care
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Phần mềm dịch vụ chăm sóc cây kiểng tại nhà</t>
     </r>
@@ -781,32 +786,36 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t xml:space="preserve">Guest: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Guest: </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">View spa combo packages (information, Pictures, prices, experiences,...)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">View spa combo packages (information, Pictures, prices, experiences,...)
-</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t xml:space="preserve">Customer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Customer: </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 + Customers can book a spa appointment for their pets.
@@ -818,49 +827,55 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t xml:space="preserve">Payment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Payment: </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">System: Save and let customers see payment history
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">System: Save and let customers see payment history
-</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Allow and grant permissions to employees and admins.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Allow and grant permissions to employees and admins.
-</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t xml:space="preserve">Staff: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Staff: 
-</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">+ After receiving the request from the system, the employee will confirm the job.
 + Consulting and responding to customer comments.
@@ -868,16 +883,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t xml:space="preserve">Admin: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Admin: </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>Account management and system maintenance</t>
     </r>
@@ -979,16 +996,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t xml:space="preserve">- Guest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">- Guest </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
  + Xem thông tin, xem đánh giá, tìm kiếm các sản phẩm về sữa và mua hàng. 
@@ -997,17 +1016,19 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t xml:space="preserve">- Member 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">- Member 
-</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> + Mua hàng bằng các hình thức chuyển khoản, thanh toán trực tuyến
  + Sử dụng voucher, tích lũy điểm thành viên, đổi quà hoặc sản phẩm tương ứng từ cửa hàng
@@ -1018,16 +1039,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t>- Staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t>- Staff</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> 
  + Xác nhận các đơn hàng, quản lý hàng hóa, người dùng, tạo các mã voucher, xử lý report, tracking đơn hàng. 
@@ -1036,16 +1059,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
+      </rPr>
+      <t>Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-      </rPr>
-      <t>Admin</t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> 
  + Quản lý account, thống kê doanh thu, sản phẩm...</t>
@@ -1236,78 +1261,127 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1315,7 +1389,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1325,20 +1399,12 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1347,183 +1413,176 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1713,33 +1772,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.75"/>
-    <col customWidth="1" min="2" max="2" width="68.25"/>
-    <col customWidth="1" min="3" max="3" width="22.38"/>
-    <col customWidth="1" min="4" max="4" width="27.5"/>
-    <col customWidth="1" min="5" max="5" width="28.25"/>
-    <col customWidth="1" min="6" max="6" width="0.38"/>
-    <col customWidth="1" min="7" max="7" width="138.88"/>
-    <col customWidth="1" min="8" max="8" width="28.5"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="68.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="6" max="6" width="0.33203125" customWidth="1"/>
+    <col min="7" max="7" width="138.88671875" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,9 +1825,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" ht="202.8" customHeight="1">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -1781,9 +1843,9 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" ht="251.4">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>10</v>
@@ -1799,9 +1861,9 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" ht="221.4">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>13</v>
@@ -1817,9 +1879,9 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" ht="251.4">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>16</v>
@@ -1835,9 +1897,9 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" ht="196.2">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>19</v>
@@ -1853,9 +1915,9 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" ht="220.8">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>22</v>
@@ -1871,9 +1933,9 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" ht="77.25" customHeight="1">
+    <row r="8" spans="1:27" ht="77.25" customHeight="1">
       <c r="A8" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>25</v>
@@ -1889,9 +1951,9 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" ht="28.8">
       <c r="A9" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>28</v>
@@ -1903,9 +1965,9 @@
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" ht="172.8">
       <c r="A10" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>29</v>
@@ -1921,9 +1983,9 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" ht="115.2">
       <c r="A11" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>32</v>
@@ -1941,7 +2003,7 @@
       </c>
       <c r="H11" s="24"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" ht="72">
       <c r="A12" s="15"/>
       <c r="B12" s="25" t="s">
         <v>36</v>
@@ -1955,7 +2017,7 @@
       </c>
       <c r="H12" s="24"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" ht="13.2">
       <c r="B13" s="27" t="s">
         <v>38</v>
       </c>
@@ -1966,12 +2028,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" ht="13.2">
       <c r="B14" s="29"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" ht="237.6">
       <c r="A15" s="30">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>41</v>
@@ -2010,9 +2072,9 @@
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" ht="224.4">
       <c r="A16" s="30">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>46</v>
@@ -2051,9 +2113,9 @@
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:27" ht="216" customHeight="1">
       <c r="A17" s="34">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>51</v>
@@ -2064,7 +2126,7 @@
         <v>52</v>
       </c>
       <c r="F17" s="36"/>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="47" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="36"/>
@@ -2088,9 +2150,9 @@
       <c r="Z17" s="36"/>
       <c r="AA17" s="36"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:27" ht="289.8">
       <c r="A18" s="30">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>54</v>
@@ -2102,9 +2164,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:27" ht="276">
       <c r="A19" s="34">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>57</v>
@@ -2116,9 +2178,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:27" ht="303.60000000000002">
       <c r="A20" s="30">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>60</v>
@@ -2130,9 +2192,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:27" ht="58.8" customHeight="1">
       <c r="A21" s="35">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>63</v>
@@ -2146,9 +2208,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:27" ht="372.6" customHeight="1">
       <c r="A22" s="42">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="43" t="s">
         <v>66</v>
@@ -2159,15 +2221,15 @@
         <v>67</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:27" ht="13.2">
       <c r="A23" s="28">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -2181,52 +2243,56 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.13"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="45" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="A2"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>